--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10714"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jbryer/Dropbox (Personal)/School/Teaching/DAV5300 2024 Fall/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77667271-56BF-A74F-A91B-8060D6F76743}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DE7B939-F402-A142-903E-D49E06B2C1D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1000" yWindow="1180" windowWidth="28800" windowHeight="17500" xr2:uid="{A772458D-4E7B-8249-8B6B-34FE7D5BD316}"/>
+    <workbookView xWindow="16040" yWindow="9660" windowWidth="28800" windowHeight="17500" xr2:uid="{A772458D-4E7B-8249-8B6B-34FE7D5BD316}"/>
   </bookViews>
   <sheets>
     <sheet name="Meetups" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="61">
   <si>
     <t>Date</t>
   </si>
@@ -215,6 +215,9 @@
   </si>
   <si>
     <t>/static/labs/08_multiple_regression.zip</t>
+  </si>
+  <si>
+    <t>TBD</t>
   </si>
 </sst>
 </file>
@@ -223,8 +226,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="[$-409]mmmm\ dd;@"/>
-    <numFmt numFmtId="167" formatCode="[$-409]mmm\-yy;@"/>
-    <numFmt numFmtId="169" formatCode="m/d/yy;@"/>
+    <numFmt numFmtId="165" formatCode="[$-409]mmm\-yy;@"/>
+    <numFmt numFmtId="166" formatCode="m/d/yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -284,10 +287,10 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -608,7 +611,7 @@
   <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -870,6 +873,9 @@
       <c r="A12" s="1">
         <v>45601</v>
       </c>
+      <c r="B12" t="s">
+        <v>60</v>
+      </c>
       <c r="C12" t="s">
         <v>34</v>
       </c>
@@ -897,6 +903,9 @@
       <c r="A14" s="1">
         <v>45615</v>
       </c>
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
       <c r="C14" t="s">
         <v>34</v>
       </c>
@@ -919,7 +928,7 @@
         <v>45629</v>
       </c>
       <c r="B16" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C16" t="s">
         <v>34</v>
@@ -937,7 +946,7 @@
         <v>45636</v>
       </c>
       <c r="B17" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="C17" t="s">
         <v>34</v>
@@ -948,18 +957,6 @@
       <c r="G17" s="2"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" s="1">
-        <v>45643</v>
-      </c>
-      <c r="B18" t="s">
-        <v>7</v>
-      </c>
-      <c r="C18" t="s">
-        <v>34</v>
-      </c>
-      <c r="D18" t="s">
-        <v>35</v>
-      </c>
       <c r="G18" s="2"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
@@ -1021,7 +1018,7 @@
         <v>45538</v>
       </c>
       <c r="B3" s="1">
-        <f t="shared" ref="B3:B18" si="0">A4-1</f>
+        <f t="shared" ref="B3:B16" si="0">A4-1</f>
         <v>45544</v>
       </c>
       <c r="C3" t="s">

--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jbryer/Dropbox (Personal)/School/Teaching/DAV5300 2024 Fall/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DE7B939-F402-A142-903E-D49E06B2C1D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E171939D-F22B-A840-919A-4CE6375B62C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16040" yWindow="9660" windowWidth="28800" windowHeight="17500" xr2:uid="{A772458D-4E7B-8249-8B6B-34FE7D5BD316}"/>
+    <workbookView xWindow="1040" yWindow="1940" windowWidth="28800" windowHeight="17500" xr2:uid="{A772458D-4E7B-8249-8B6B-34FE7D5BD316}"/>
   </bookViews>
   <sheets>
     <sheet name="Meetups" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="63">
   <si>
     <t>Date</t>
   </si>
@@ -193,9 +193,6 @@
     <t>/static/homework/homework8.pdf</t>
   </si>
   <si>
-    <t>/static/homework/homework9.pdf</t>
-  </si>
-  <si>
     <t>/static/labs/02_intro_to_data.zip</t>
   </si>
   <si>
@@ -218,6 +215,15 @@
   </si>
   <si>
     <t>TBD</t>
+  </si>
+  <si>
+    <t>/static/homework/homework9_mr.pdf</t>
+  </si>
+  <si>
+    <t>/static/homework/homework9_lr.pdf</t>
+  </si>
+  <si>
+    <t>/static/labs/09_logistic_regression.zip</t>
   </si>
 </sst>
 </file>
@@ -611,7 +617,7 @@
   <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -698,7 +704,7 @@
         <v>46</v>
       </c>
       <c r="H3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
@@ -721,7 +727,7 @@
         <v>47</v>
       </c>
       <c r="H4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
@@ -744,7 +750,7 @@
         <v>49</v>
       </c>
       <c r="H5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
@@ -767,7 +773,7 @@
         <v>48</v>
       </c>
       <c r="H6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
@@ -790,7 +796,7 @@
         <v>50</v>
       </c>
       <c r="H7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
@@ -813,7 +819,7 @@
         <v>51</v>
       </c>
       <c r="H8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
@@ -829,7 +835,12 @@
       <c r="D9" t="s">
         <v>35</v>
       </c>
-      <c r="G9" s="2"/>
+      <c r="G9" t="s">
+        <v>61</v>
+      </c>
+      <c r="H9" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
@@ -848,10 +859,10 @@
         <v>29</v>
       </c>
       <c r="G10" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="H10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
@@ -874,7 +885,7 @@
         <v>45601</v>
       </c>
       <c r="B12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C12" t="s">
         <v>34</v>

--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jbryer/Dropbox (Personal)/School/Teaching/DAV5300 2024 Fall/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E171939D-F22B-A840-919A-4CE6375B62C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5991188-11F0-A844-82DB-B9EE1E1D2C23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1040" yWindow="1940" windowWidth="28800" windowHeight="17500" xr2:uid="{A772458D-4E7B-8249-8B6B-34FE7D5BD316}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="64">
   <si>
     <t>Date</t>
   </si>
@@ -224,6 +224,9 @@
   </si>
   <si>
     <t>/static/labs/09_logistic_regression.zip</t>
+  </si>
+  <si>
+    <t>https://visualstats.bryer.org/mle.html</t>
   </si>
 </sst>
 </file>
@@ -617,7 +620,7 @@
   <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -834,6 +837,9 @@
       </c>
       <c r="D9" t="s">
         <v>35</v>
+      </c>
+      <c r="E9" t="s">
+        <v>63</v>
       </c>
       <c r="G9" t="s">
         <v>61</v>

--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jbryer/Dropbox (Personal)/School/Teaching/DAV5300 2024 Fall/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5991188-11F0-A844-82DB-B9EE1E1D2C23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28881D82-BF1E-3044-B574-97C35424823E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1040" yWindow="1940" windowWidth="28800" windowHeight="17500" xr2:uid="{A772458D-4E7B-8249-8B6B-34FE7D5BD316}"/>
+    <workbookView xWindow="400" yWindow="1420" windowWidth="28800" windowHeight="17500" xr2:uid="{A772458D-4E7B-8249-8B6B-34FE7D5BD316}"/>
   </bookViews>
   <sheets>
     <sheet name="Meetups" sheetId="1" r:id="rId1"/>
@@ -620,19 +620,19 @@
   <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="18.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="43.33203125" customWidth="1"/>
+    <col min="2" max="2" width="48.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="33" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="28" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="30.1640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="25.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="33.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="43.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">

--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jbryer/Dropbox (Personal)/School/Teaching/DAV5300 2024 Fall/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28881D82-BF1E-3044-B574-97C35424823E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9155559F-CA5D-0548-A3BA-F58628BF4FB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="400" yWindow="1420" windowWidth="28800" windowHeight="17500" xr2:uid="{A772458D-4E7B-8249-8B6B-34FE7D5BD316}"/>
+    <workbookView xWindow="15200" yWindow="7780" windowWidth="28800" windowHeight="17500" xr2:uid="{A772458D-4E7B-8249-8B6B-34FE7D5BD316}"/>
   </bookViews>
   <sheets>
     <sheet name="Meetups" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="65">
   <si>
     <t>Date</t>
   </si>
@@ -142,9 +142,6 @@
     <t>5:30pm</t>
   </si>
   <si>
-    <t>9:45pm</t>
-  </si>
-  <si>
     <t>Intro to the Course / Intro to Data</t>
   </si>
   <si>
@@ -227,6 +224,12 @@
   </si>
   <si>
     <t>https://visualstats.bryer.org/mle.html</t>
+  </si>
+  <si>
+    <t>/slides/02-Summarizing_Data.html</t>
+  </si>
+  <si>
+    <t>7:30pm</t>
   </si>
 </sst>
 </file>
@@ -620,7 +623,7 @@
   <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -649,16 +652,16 @@
         <v>5</v>
       </c>
       <c r="E1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F1" t="s">
         <v>16</v>
       </c>
       <c r="G1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H1" t="s">
         <v>40</v>
-      </c>
-      <c r="H1" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
@@ -666,25 +669,25 @@
         <v>45531</v>
       </c>
       <c r="B2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C2" t="s">
         <v>34</v>
       </c>
       <c r="D2" t="s">
-        <v>35</v>
+        <v>64</v>
       </c>
       <c r="E2" t="s">
         <v>22</v>
       </c>
       <c r="F2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G2" t="s">
         <v>44</v>
       </c>
-      <c r="G2" t="s">
-        <v>45</v>
-      </c>
       <c r="H2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
@@ -698,16 +701,19 @@
         <v>34</v>
       </c>
       <c r="D3" t="s">
-        <v>35</v>
+        <v>64</v>
       </c>
       <c r="E3" t="s">
         <v>23</v>
       </c>
+      <c r="F3" t="s">
+        <v>63</v>
+      </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
@@ -715,22 +721,22 @@
         <v>45545</v>
       </c>
       <c r="B4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C4" t="s">
         <v>34</v>
       </c>
       <c r="D4" t="s">
-        <v>35</v>
+        <v>64</v>
       </c>
       <c r="E4" t="s">
         <v>24</v>
       </c>
       <c r="G4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
@@ -744,16 +750,16 @@
         <v>34</v>
       </c>
       <c r="D5" t="s">
-        <v>35</v>
+        <v>64</v>
       </c>
       <c r="E5" t="s">
         <v>25</v>
       </c>
       <c r="G5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
@@ -767,16 +773,16 @@
         <v>34</v>
       </c>
       <c r="D6" t="s">
-        <v>35</v>
+        <v>64</v>
       </c>
       <c r="E6" t="s">
         <v>26</v>
       </c>
       <c r="G6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
@@ -790,16 +796,16 @@
         <v>34</v>
       </c>
       <c r="D7" t="s">
-        <v>35</v>
+        <v>64</v>
       </c>
       <c r="E7" t="s">
         <v>27</v>
       </c>
       <c r="G7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
@@ -813,16 +819,16 @@
         <v>34</v>
       </c>
       <c r="D8" t="s">
-        <v>35</v>
+        <v>64</v>
       </c>
       <c r="E8" t="s">
         <v>28</v>
       </c>
       <c r="G8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
@@ -830,22 +836,22 @@
         <v>45580</v>
       </c>
       <c r="B9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C9" t="s">
         <v>34</v>
       </c>
       <c r="D9" t="s">
-        <v>35</v>
+        <v>64</v>
       </c>
       <c r="E9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G9" t="s">
+        <v>60</v>
+      </c>
+      <c r="H9" t="s">
         <v>61</v>
-      </c>
-      <c r="H9" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
@@ -859,16 +865,16 @@
         <v>34</v>
       </c>
       <c r="D10" t="s">
-        <v>35</v>
+        <v>64</v>
       </c>
       <c r="E10" t="s">
         <v>29</v>
       </c>
       <c r="G10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
@@ -876,13 +882,13 @@
         <v>45594</v>
       </c>
       <c r="B11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C11" t="s">
         <v>34</v>
       </c>
       <c r="D11" t="s">
-        <v>35</v>
+        <v>64</v>
       </c>
       <c r="G11" s="2"/>
     </row>
@@ -891,13 +897,13 @@
         <v>45601</v>
       </c>
       <c r="B12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C12" t="s">
         <v>34</v>
       </c>
       <c r="D12" t="s">
-        <v>35</v>
+        <v>64</v>
       </c>
       <c r="G12" s="4"/>
     </row>
@@ -912,7 +918,7 @@
         <v>34</v>
       </c>
       <c r="D13" t="s">
-        <v>35</v>
+        <v>64</v>
       </c>
       <c r="G13" s="2"/>
     </row>
@@ -927,7 +933,7 @@
         <v>34</v>
       </c>
       <c r="D14" t="s">
-        <v>35</v>
+        <v>64</v>
       </c>
       <c r="G14" s="5"/>
     </row>
@@ -951,7 +957,7 @@
         <v>34</v>
       </c>
       <c r="D16" t="s">
-        <v>35</v>
+        <v>64</v>
       </c>
       <c r="E16" t="s">
         <v>30</v>
@@ -969,7 +975,7 @@
         <v>34</v>
       </c>
       <c r="D17" t="s">
-        <v>35</v>
+        <v>64</v>
       </c>
       <c r="G17" s="2"/>
     </row>

--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jbryer/Dropbox (Personal)/School/Teaching/DAV5300 2024 Fall/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9155559F-CA5D-0548-A3BA-F58628BF4FB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{406724C6-BCBB-1D4C-93E7-9F6CA7424F41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15200" yWindow="7780" windowWidth="28800" windowHeight="17500" xr2:uid="{A772458D-4E7B-8249-8B6B-34FE7D5BD316}"/>
+    <workbookView xWindow="4440" yWindow="7860" windowWidth="28800" windowHeight="17500" xr2:uid="{A772458D-4E7B-8249-8B6B-34FE7D5BD316}"/>
   </bookViews>
   <sheets>
     <sheet name="Meetups" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="66">
   <si>
     <t>Date</t>
   </si>
@@ -196,21 +196,6 @@
     <t>/static/labs/03_probability.zip</t>
   </si>
   <si>
-    <t>/static/labs/11_foundations_for_inference.zip</t>
-  </si>
-  <si>
-    <t>/static/labs/16_inference_for_categorial_data.zip</t>
-  </si>
-  <si>
-    <t>/static/labs/19_inference_for_numerical_data</t>
-  </si>
-  <si>
-    <t>/static/labs/07_simple_linear_regression.zip</t>
-  </si>
-  <si>
-    <t>/static/labs/08_multiple_regression.zip</t>
-  </si>
-  <si>
     <t>TBD</t>
   </si>
   <si>
@@ -230,6 +215,24 @@
   </si>
   <si>
     <t>7:30pm</t>
+  </si>
+  <si>
+    <t>/static/labs/05_foundations_for_inference.zip</t>
+  </si>
+  <si>
+    <t>/static/labs/06_inference_for_categorial_data.zip</t>
+  </si>
+  <si>
+    <t>/static/labs/07_inference_for_numerical_data</t>
+  </si>
+  <si>
+    <t>/static/labs/08_simple_linear_regression.zip</t>
+  </si>
+  <si>
+    <t>/static/labs/09_multiple_regression.zip</t>
+  </si>
+  <si>
+    <t>/slides/03-Probability_and_Distributions.html</t>
   </si>
 </sst>
 </file>
@@ -623,7 +626,7 @@
   <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -675,7 +678,7 @@
         <v>34</v>
       </c>
       <c r="D2" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="E2" t="s">
         <v>22</v>
@@ -701,13 +704,13 @@
         <v>34</v>
       </c>
       <c r="D3" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="E3" t="s">
         <v>23</v>
       </c>
       <c r="F3" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="G3" t="s">
         <v>45</v>
@@ -727,10 +730,13 @@
         <v>34</v>
       </c>
       <c r="D4" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="E4" t="s">
         <v>24</v>
+      </c>
+      <c r="F4" t="s">
+        <v>65</v>
       </c>
       <c r="G4" t="s">
         <v>46</v>
@@ -750,7 +756,7 @@
         <v>34</v>
       </c>
       <c r="D5" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="E5" t="s">
         <v>25</v>
@@ -759,7 +765,7 @@
         <v>48</v>
       </c>
       <c r="H5" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
@@ -773,7 +779,7 @@
         <v>34</v>
       </c>
       <c r="D6" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="E6" t="s">
         <v>26</v>
@@ -782,7 +788,7 @@
         <v>47</v>
       </c>
       <c r="H6" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
@@ -796,7 +802,7 @@
         <v>34</v>
       </c>
       <c r="D7" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="E7" t="s">
         <v>27</v>
@@ -805,7 +811,7 @@
         <v>49</v>
       </c>
       <c r="H7" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
@@ -819,7 +825,7 @@
         <v>34</v>
       </c>
       <c r="D8" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="E8" t="s">
         <v>28</v>
@@ -828,7 +834,7 @@
         <v>50</v>
       </c>
       <c r="H8" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
@@ -842,16 +848,16 @@
         <v>34</v>
       </c>
       <c r="D9" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="E9" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="G9" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="H9" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
@@ -865,16 +871,16 @@
         <v>34</v>
       </c>
       <c r="D10" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="E10" t="s">
         <v>29</v>
       </c>
       <c r="G10" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="H10" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
@@ -888,7 +894,7 @@
         <v>34</v>
       </c>
       <c r="D11" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="G11" s="2"/>
     </row>
@@ -897,13 +903,13 @@
         <v>45601</v>
       </c>
       <c r="B12" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="C12" t="s">
         <v>34</v>
       </c>
       <c r="D12" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="G12" s="4"/>
     </row>
@@ -918,7 +924,7 @@
         <v>34</v>
       </c>
       <c r="D13" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="G13" s="2"/>
     </row>
@@ -933,7 +939,7 @@
         <v>34</v>
       </c>
       <c r="D14" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="G14" s="5"/>
     </row>
@@ -957,7 +963,7 @@
         <v>34</v>
       </c>
       <c r="D16" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="E16" t="s">
         <v>30</v>
@@ -975,7 +981,7 @@
         <v>34</v>
       </c>
       <c r="D17" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="G17" s="2"/>
     </row>

--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10908"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jbryer/Dropbox (Personal)/School/Teaching/DAV5300 2024 Fall/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{406724C6-BCBB-1D4C-93E7-9F6CA7424F41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6469817-4A93-084D-AACE-3D7E9553D56D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4440" yWindow="7860" windowWidth="28800" windowHeight="17500" xr2:uid="{A772458D-4E7B-8249-8B6B-34FE7D5BD316}"/>
+    <workbookView xWindow="1440" yWindow="2140" windowWidth="28800" windowHeight="17500" xr2:uid="{A772458D-4E7B-8249-8B6B-34FE7D5BD316}"/>
   </bookViews>
   <sheets>
     <sheet name="Meetups" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="67">
   <si>
     <t>Date</t>
   </si>
@@ -233,6 +233,9 @@
   </si>
   <si>
     <t>/slides/03-Probability_and_Distributions.html</t>
+  </si>
+  <si>
+    <t>/slides/05-Foundation_for_Inference.html</t>
   </si>
 </sst>
 </file>
@@ -761,6 +764,9 @@
       <c r="E5" t="s">
         <v>25</v>
       </c>
+      <c r="F5" t="s">
+        <v>66</v>
+      </c>
       <c r="G5" t="s">
         <v>48</v>
       </c>

--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10908"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jbryer/Dropbox (Personal)/School/Teaching/DAV5300 2024 Fall/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6469817-4A93-084D-AACE-3D7E9553D56D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97CA1B40-1F15-CA49-BFB7-DB6CD08F760E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1440" yWindow="2140" windowWidth="28800" windowHeight="17500" xr2:uid="{A772458D-4E7B-8249-8B6B-34FE7D5BD316}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="68">
   <si>
     <t>Date</t>
   </si>
@@ -236,6 +236,9 @@
   </si>
   <si>
     <t>/slides/05-Foundation_for_Inference.html</t>
+  </si>
+  <si>
+    <t>/slides/06-Inference_for_Categorical_Data.html</t>
   </si>
 </sst>
 </file>
@@ -629,7 +632,7 @@
   <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -789,6 +792,9 @@
       </c>
       <c r="E6" t="s">
         <v>26</v>
+      </c>
+      <c r="F6" t="s">
+        <v>67</v>
       </c>
       <c r="G6" t="s">
         <v>47</v>

--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jbryer/Dropbox (Personal)/School/Teaching/DAV5300 2024 Fall/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97CA1B40-1F15-CA49-BFB7-DB6CD08F760E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCC36F0C-00FA-2242-A50D-35B203C08E29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1440" yWindow="2140" windowWidth="28800" windowHeight="17500" xr2:uid="{A772458D-4E7B-8249-8B6B-34FE7D5BD316}"/>
+    <workbookView xWindow="17160" yWindow="8420" windowWidth="28800" windowHeight="17500" xr2:uid="{A772458D-4E7B-8249-8B6B-34FE7D5BD316}"/>
   </bookViews>
   <sheets>
     <sheet name="Meetups" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="69">
   <si>
     <t>Date</t>
   </si>
@@ -239,6 +239,9 @@
   </si>
   <si>
     <t>/slides/06-Inference_for_Categorical_Data.html</t>
+  </si>
+  <si>
+    <t>/slides/06-Inference_for_Numerical_Data.html</t>
   </si>
 </sst>
 </file>
@@ -632,7 +635,7 @@
   <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -818,6 +821,9 @@
       </c>
       <c r="E7" t="s">
         <v>27</v>
+      </c>
+      <c r="F7" t="s">
+        <v>68</v>
       </c>
       <c r="G7" t="s">
         <v>49</v>

--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jbryer/Dropbox (Personal)/School/Teaching/DAV5300 2024 Fall/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCC36F0C-00FA-2242-A50D-35B203C08E29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23CFADB1-709D-0948-BCB8-47F15F8EA58D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="17160" yWindow="8420" windowWidth="28800" windowHeight="17500" xr2:uid="{A772458D-4E7B-8249-8B6B-34FE7D5BD316}"/>
   </bookViews>
@@ -223,9 +223,6 @@
     <t>/static/labs/06_inference_for_categorial_data.zip</t>
   </si>
   <si>
-    <t>/static/labs/07_inference_for_numerical_data</t>
-  </si>
-  <si>
     <t>/static/labs/08_simple_linear_regression.zip</t>
   </si>
   <si>
@@ -242,6 +239,9 @@
   </si>
   <si>
     <t>/slides/06-Inference_for_Numerical_Data.html</t>
+  </si>
+  <si>
+    <t>/static/labs/07_inference_for_numerical_data.zip</t>
   </si>
 </sst>
 </file>
@@ -634,8 +634,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA12B6D5-EAC3-1C40-AC8A-3C6A227098E4}">
   <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -745,7 +745,7 @@
         <v>24</v>
       </c>
       <c r="F4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G4" t="s">
         <v>46</v>
@@ -771,7 +771,7 @@
         <v>25</v>
       </c>
       <c r="F5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G5" t="s">
         <v>48</v>
@@ -797,7 +797,7 @@
         <v>26</v>
       </c>
       <c r="F6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G6" t="s">
         <v>47</v>
@@ -823,13 +823,13 @@
         <v>27</v>
       </c>
       <c r="F7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G7" t="s">
         <v>49</v>
       </c>
       <c r="H7" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
@@ -852,7 +852,7 @@
         <v>50</v>
       </c>
       <c r="H8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
@@ -898,7 +898,7 @@
         <v>54</v>
       </c>
       <c r="H10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">

--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jbryer/Dropbox (Personal)/School/Teaching/DAV5300 2024 Fall/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23CFADB1-709D-0948-BCB8-47F15F8EA58D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18551971-CD01-6A4D-9C39-07C68D944511}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="17160" yWindow="8420" windowWidth="28800" windowHeight="17500" xr2:uid="{A772458D-4E7B-8249-8B6B-34FE7D5BD316}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="70">
   <si>
     <t>Date</t>
   </si>
@@ -242,6 +242,9 @@
   </si>
   <si>
     <t>/static/labs/07_inference_for_numerical_data.zip</t>
+  </si>
+  <si>
+    <t>/slides/08-Linear_Regression.html</t>
   </si>
 </sst>
 </file>
@@ -635,7 +638,7 @@
   <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -847,6 +850,9 @@
       </c>
       <c r="E8" t="s">
         <v>28</v>
+      </c>
+      <c r="F8" t="s">
+        <v>69</v>
       </c>
       <c r="G8" t="s">
         <v>50</v>

--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jbryer/Dropbox (Personal)/School/Teaching/DAV5300 2024 Fall/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18551971-CD01-6A4D-9C39-07C68D944511}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3715982-15D2-A248-A39A-624EC10C1E5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17160" yWindow="8420" windowWidth="28800" windowHeight="17500" xr2:uid="{A772458D-4E7B-8249-8B6B-34FE7D5BD316}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{A772458D-4E7B-8249-8B6B-34FE7D5BD316}"/>
   </bookViews>
   <sheets>
     <sheet name="Meetups" sheetId="1" r:id="rId1"/>
@@ -238,13 +238,13 @@
     <t>/slides/06-Inference_for_Categorical_Data.html</t>
   </si>
   <si>
-    <t>/slides/06-Inference_for_Numerical_Data.html</t>
-  </si>
-  <si>
     <t>/static/labs/07_inference_for_numerical_data.zip</t>
   </si>
   <si>
     <t>/slides/08-Linear_Regression.html</t>
+  </si>
+  <si>
+    <t>/slides/07-Inference_for_Numerical_Data.html</t>
   </si>
 </sst>
 </file>
@@ -638,7 +638,7 @@
   <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -826,13 +826,13 @@
         <v>27</v>
       </c>
       <c r="F7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="G7" t="s">
         <v>49</v>
       </c>
       <c r="H7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
@@ -852,7 +852,7 @@
         <v>28</v>
       </c>
       <c r="F8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G8" t="s">
         <v>50</v>
@@ -965,6 +965,9 @@
       <c r="D14" t="s">
         <v>59</v>
       </c>
+      <c r="E14" t="s">
+        <v>30</v>
+      </c>
       <c r="G14" s="5"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
@@ -988,9 +991,6 @@
       </c>
       <c r="D16" t="s">
         <v>59</v>
-      </c>
-      <c r="E16" t="s">
-        <v>30</v>
       </c>
       <c r="G16" s="4"/>
     </row>

--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jbryer/Dropbox (Personal)/School/Teaching/DAV5300 2024 Fall/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3715982-15D2-A248-A39A-624EC10C1E5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A582D14C-6675-464E-9165-1919A4EA30B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{A772458D-4E7B-8249-8B6B-34FE7D5BD316}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="71">
   <si>
     <t>Date</t>
   </si>
@@ -196,9 +196,6 @@
     <t>/static/labs/03_probability.zip</t>
   </si>
   <si>
-    <t>TBD</t>
-  </si>
-  <si>
     <t>/static/homework/homework9_mr.pdf</t>
   </si>
   <si>
@@ -245,6 +242,12 @@
   </si>
   <si>
     <t>/slides/07-Inference_for_Numerical_Data.html</t>
+  </si>
+  <si>
+    <t>NO CLASS - Thanksgiving</t>
+  </si>
+  <si>
+    <t>NO CLASS</t>
   </si>
 </sst>
 </file>
@@ -637,8 +640,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA12B6D5-EAC3-1C40-AC8A-3C6A227098E4}">
   <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -690,7 +693,7 @@
         <v>34</v>
       </c>
       <c r="D2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E2" t="s">
         <v>22</v>
@@ -716,13 +719,13 @@
         <v>34</v>
       </c>
       <c r="D3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E3" t="s">
         <v>23</v>
       </c>
       <c r="F3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G3" t="s">
         <v>45</v>
@@ -742,13 +745,13 @@
         <v>34</v>
       </c>
       <c r="D4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E4" t="s">
         <v>24</v>
       </c>
       <c r="F4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G4" t="s">
         <v>46</v>
@@ -768,19 +771,19 @@
         <v>34</v>
       </c>
       <c r="D5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E5" t="s">
         <v>25</v>
       </c>
       <c r="F5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G5" t="s">
         <v>48</v>
       </c>
       <c r="H5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
@@ -794,19 +797,19 @@
         <v>34</v>
       </c>
       <c r="D6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E6" t="s">
         <v>26</v>
       </c>
       <c r="F6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G6" t="s">
         <v>47</v>
       </c>
       <c r="H6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
@@ -820,19 +823,19 @@
         <v>34</v>
       </c>
       <c r="D7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E7" t="s">
         <v>27</v>
       </c>
       <c r="F7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G7" t="s">
         <v>49</v>
       </c>
       <c r="H7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
@@ -846,19 +849,19 @@
         <v>34</v>
       </c>
       <c r="D8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E8" t="s">
         <v>28</v>
       </c>
       <c r="F8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G8" t="s">
         <v>50</v>
       </c>
       <c r="H8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
@@ -872,16 +875,16 @@
         <v>34</v>
       </c>
       <c r="D9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G9" t="s">
+        <v>54</v>
+      </c>
+      <c r="H9" t="s">
         <v>55</v>
-      </c>
-      <c r="H9" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
@@ -895,16 +898,16 @@
         <v>34</v>
       </c>
       <c r="D10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E10" t="s">
         <v>29</v>
       </c>
       <c r="G10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
@@ -912,13 +915,7 @@
         <v>45594</v>
       </c>
       <c r="B11" t="s">
-        <v>38</v>
-      </c>
-      <c r="C11" t="s">
-        <v>34</v>
-      </c>
-      <c r="D11" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="G11" s="2"/>
     </row>
@@ -927,13 +924,13 @@
         <v>45601</v>
       </c>
       <c r="B12" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="C12" t="s">
         <v>34</v>
       </c>
       <c r="D12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G12" s="4"/>
     </row>
@@ -948,7 +945,7 @@
         <v>34</v>
       </c>
       <c r="D13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G13" s="2"/>
     </row>
@@ -963,7 +960,7 @@
         <v>34</v>
       </c>
       <c r="D14" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E14" t="s">
         <v>30</v>
@@ -975,7 +972,7 @@
         <v>45622</v>
       </c>
       <c r="B15" t="s">
-        <v>20</v>
+        <v>69</v>
       </c>
       <c r="G15" s="2"/>
     </row>
@@ -990,7 +987,7 @@
         <v>34</v>
       </c>
       <c r="D16" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G16" s="4"/>
     </row>
@@ -1005,7 +1002,7 @@
         <v>34</v>
       </c>
       <c r="D17" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G17" s="2"/>
     </row>

--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jbryer/Dropbox (Personal)/School/Teaching/DAV5300 2024 Fall/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A582D14C-6675-464E-9165-1919A4EA30B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F89A2C6-2FEA-0049-BDAE-6A9B42F21911}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{A772458D-4E7B-8249-8B6B-34FE7D5BD316}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="72">
   <si>
     <t>Date</t>
   </si>
@@ -248,6 +248,9 @@
   </si>
   <si>
     <t>NO CLASS</t>
+  </si>
+  <si>
+    <t>/slides/09-Multiple_Regression.html</t>
   </si>
 </sst>
 </file>
@@ -641,7 +644,7 @@
   <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -869,7 +872,7 @@
         <v>45580</v>
       </c>
       <c r="B9" t="s">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="C9" t="s">
         <v>34</v>
@@ -880,11 +883,14 @@
       <c r="E9" t="s">
         <v>56</v>
       </c>
+      <c r="F9" t="s">
+        <v>71</v>
+      </c>
       <c r="G9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H9" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
@@ -892,7 +898,7 @@
         <v>45587</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="C10" t="s">
         <v>34</v>
@@ -904,10 +910,10 @@
         <v>29</v>
       </c>
       <c r="G10" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H10" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
@@ -917,7 +923,6 @@
       <c r="B11" t="s">
         <v>70</v>
       </c>
-      <c r="G11" s="2"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="1">

--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jbryer/Dropbox (Personal)/School/Teaching/DAV5300 2024 Fall/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F89A2C6-2FEA-0049-BDAE-6A9B42F21911}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEFBC25D-94E4-D742-A64A-226F5F241862}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{A772458D-4E7B-8249-8B6B-34FE7D5BD316}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="73">
   <si>
     <t>Date</t>
   </si>
@@ -251,6 +251,9 @@
   </si>
   <si>
     <t>/slides/09-Multiple_Regression.html</t>
+  </si>
+  <si>
+    <t>/slides/09-Logistic_Regression.html</t>
   </si>
 </sst>
 </file>
@@ -644,7 +647,7 @@
   <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -908,6 +911,9 @@
       </c>
       <c r="E10" t="s">
         <v>29</v>
+      </c>
+      <c r="F10" t="s">
+        <v>72</v>
       </c>
       <c r="G10" t="s">
         <v>54</v>

--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11027"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jbryer/Dropbox (Personal)/School/Teaching/DAV5300 2024 Fall/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEFBC25D-94E4-D742-A64A-226F5F241862}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C35BFB7-371E-024D-9940-371795782411}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{A772458D-4E7B-8249-8B6B-34FE7D5BD316}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="75">
   <si>
     <t>Date</t>
   </si>
@@ -254,6 +254,12 @@
   </si>
   <si>
     <t>/slides/09-Logistic_Regression.html</t>
+  </si>
+  <si>
+    <t>/slides/CART-Methods.html</t>
+  </si>
+  <si>
+    <t>https://docs.google.com/spreadsheets/d/10dVCupecll_VFIRjnhA7MP5sJoMJSO8f8LBvpnY9Ppw/edit?gid=0#gid=0</t>
   </si>
 </sst>
 </file>
@@ -647,7 +653,7 @@
   <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -943,6 +949,9 @@
       <c r="D12" t="s">
         <v>58</v>
       </c>
+      <c r="F12" t="s">
+        <v>73</v>
+      </c>
       <c r="G12" s="4"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
@@ -957,6 +966,9 @@
       </c>
       <c r="D13" t="s">
         <v>58</v>
+      </c>
+      <c r="E13" t="s">
+        <v>74</v>
       </c>
       <c r="G13" s="2"/>
     </row>

--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11027"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jbryer/Dropbox (Personal)/School/Teaching/DAV5300 2024 Fall/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C35BFB7-371E-024D-9940-371795782411}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45532ED4-00A9-3D43-BD18-888A569CB88C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{A772458D-4E7B-8249-8B6B-34FE7D5BD316}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="77">
   <si>
     <t>Date</t>
   </si>
@@ -260,6 +260,12 @@
   </si>
   <si>
     <t>https://docs.google.com/spreadsheets/d/10dVCupecll_VFIRjnhA7MP5sJoMJSO8f8LBvpnY9Ppw/edit?gid=0#gid=0</t>
+  </si>
+  <si>
+    <t>Bayesian Analysis and Predictive Modeling</t>
+  </si>
+  <si>
+    <t>/slides/10-Bayesian_Analysis.pdf</t>
   </si>
 </sst>
 </file>
@@ -653,7 +659,7 @@
   <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -977,7 +983,7 @@
         <v>45615</v>
       </c>
       <c r="B14" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="C14" t="s">
         <v>34</v>
@@ -987,6 +993,9 @@
       </c>
       <c r="E14" t="s">
         <v>30</v>
+      </c>
+      <c r="F14" t="s">
+        <v>76</v>
       </c>
       <c r="G14" s="5"/>
     </row>
